--- a/biology/Médecine/1544_en_santé_et_médecine/1544_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1544_en_santé_et_médecine/1544_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1544_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1544_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1544 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1544_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1544_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7 novembre : François Ier établit le Grand bureau des pauvres de Paris, organisme qui gère deux maisons hospitalières, l'hôpital de la Trinité, dit « des Enfants-Bleus », rue Saint-Denis, pour les enfants orphelins, et la maladrerie Saint-Germain, remplacée en 1557 par un hospice « pour les malades aliénés, vénériens ou teigneux » connu sous le nom de « Petites Maisons », lequel, alors réservé aux couples âgés, deviendra  au XIXe siècle « hospice des ménages » puis, transféré en 1863 à Issy-les-Moulineaux, « hôpital Corentin-Celton[1] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>7 novembre : François Ier établit le Grand bureau des pauvres de Paris, organisme qui gère deux maisons hospitalières, l'hôpital de la Trinité, dit « des Enfants-Bleus », rue Saint-Denis, pour les enfants orphelins, et la maladrerie Saint-Germain, remplacée en 1557 par un hospice « pour les malades aliénés, vénériens ou teigneux » connu sous le nom de « Petites Maisons », lequel, alors réservé aux couples âgés, deviendra  au XIXe siècle « hospice des ménages » puis, transféré en 1863 à Issy-les-Moulineaux, « hôpital Corentin-Celton ».</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1544_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1544_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,11 +555,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Guido Guidi (1509-1569) publie à Paris, chez Pierre Gaultier, sa Chirurgia,  compilation de traités d'Hippocrate, Galien et Oribase traduits du grec en latin et accompagnés de commentaires[2],[3].
-Le médecin et botaniste italien Pierandrea Mattioli (1501-1578) publie à Venise chez Nicolò de Bascarani ses Commentaires[4]sur la Matière médicale de Dioscoride, illustrés de cinq cents planches[5].
-Thomas Phaer (en) (c.1510-1560), avocat, pédiatre et écrivain anglais, donne une traduction, dans sa langue et sous le titre de The Regiment of Life, de la version française du Regimen sanitatis Salerni[6], à laquelle il joint un  « Livre des enfants » (A Boke of Chyldren), « premier traité de pédiatrie rédigé en anglais[7] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Guido Guidi (1509-1569) publie à Paris, chez Pierre Gaultier, sa Chirurgia,  compilation de traités d'Hippocrate, Galien et Oribase traduits du grec en latin et accompagnés de commentaires,.
+Le médecin et botaniste italien Pierandrea Mattioli (1501-1578) publie à Venise chez Nicolò de Bascarani ses Commentairessur la Matière médicale de Dioscoride, illustrés de cinq cents planches.
+Thomas Phaer (en) (c.1510-1560), avocat, pédiatre et écrivain anglais, donne une traduction, dans sa langue et sous le titre de The Regiment of Life, de la version française du Regimen sanitatis Salerni, à laquelle il joint un  « Livre des enfants » (A Boke of Chyldren), « premier traité de pédiatrie rédigé en anglais ».</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1544_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1544_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>William Gilbert (mort en 1603), astronome et médecin au service d'Élisabeth Ire puis de Jacques Ier[8].
-1521, 1544 ou 1546 : Joseph du Chesne (mort en 1609), chimiste, médecin et diplomate français[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>William Gilbert (mort en 1603), astronome et médecin au service d'Élisabeth Ire puis de Jacques Ier.
+1521, 1544 ou 1546 : Joseph du Chesne (mort en 1609), chimiste, médecin et diplomate français.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1544_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1544_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Valerius Cordus (né en 1515), naturaliste et médecin allemand[10], fils du médecin Euricius Cordus (1486-1535[10]).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valerius Cordus (né en 1515), naturaliste et médecin allemand, fils du médecin Euricius Cordus (1486-1535).
 </t>
         </is>
       </c>
